--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793770.8737420177</v>
+        <v>-795658.4552584196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>34.97667527032527</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>334.3399724389686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4315177721688</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>129.0326605836839</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.1474532723878</v>
+        <v>395.6071235949188</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>128.5001899129491</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.3408772460429</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>154.2603067667924</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>280.8930883005169</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>131.889868597914</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.02575748609793</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="12">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>239.1100210769314</v>
+        <v>89.86812316042949</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>122.6494500489696</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>122.3137095599335</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>131.9765173080878</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056517</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>168.963819760769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>174.7430637258776</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>206.8064269214862</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.87916681139886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>172.7067178467369</v>
+        <v>27.26009267756221</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>78.67531269947337</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897933</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571518</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523599</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>120.0251628306702</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896894</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
         <v>959.5129866402885</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2430.612938842355</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2430.612938842355</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2077.844283572241</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="3">
@@ -4386,16 +4386,16 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.8839088629592</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>104.8839088629592</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931989</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931989</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.185086336931</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C5" t="n">
-        <v>1722.185086336931</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.919387730181</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="E5" t="n">
-        <v>978.1311351319366</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="F5" t="n">
-        <v>567.1452303423291</v>
+        <v>607.0121129716574</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4662,13 +4662,13 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1104.379069117475</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537684</v>
+        <v>735.4165521770631</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.877315537684</v>
+        <v>377.1508535703126</v>
       </c>
       <c r="E8" t="n">
-        <v>1320.08906293944</v>
+        <v>377.1508535703126</v>
       </c>
       <c r="F8" t="n">
-        <v>909.1031581498323</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>491.1393500480192</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500979</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157408</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157408</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1881.118241157408</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1490.978909181596</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571352</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>517.0636002298173</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>383.8415107369749</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610022</v>
+        <v>383.8415107369749</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>438.9553738610022</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600571</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,7 +5063,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5078,10 +5078,10 @@
         <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256436</v>
@@ -5124,7 +5124,7 @@
         <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5179,10 +5179,10 @@
         <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>394.525047410253</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>394.525047410253</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5191,10 +5191,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799402</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947123</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557907</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771465</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655779</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W13" t="n">
-        <v>713.5778697504957</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="X13" t="n">
-        <v>713.5778697504956</v>
+        <v>895.2263345807353</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.5778697504956</v>
+        <v>895.2263345807353</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.9315552689008</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="C16" t="n">
-        <v>367.9953723409939</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
         <v>244.1070389581962</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688091</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799385</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471213</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1375.367068982215</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347409</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347409</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104482</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="X16" t="n">
-        <v>757.7241344124309</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.9315552689008</v>
+        <v>542.1367719529252</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>531.397718270632</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336714</v>
+        <v>731.029197104561</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>731.029197104561</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>510.2366179610308</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>525.6009593486385</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C22" t="n">
-        <v>356.6647764207316</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207316</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383385</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383385</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>928.0420033224084</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>928.0420033224084</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.2494241788783</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247859</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247859</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>709.451253618899</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>420.0340835819384</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>192.0445326839211</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>727.6476863320729</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018334</v>
+        <v>727.6476863320729</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038161</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028596</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,25 +6482,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542135</v>
+        <v>750.8748194215256</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264629</v>
+        <v>637.6995017749894</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264629</v>
+        <v>543.3437276440244</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264629</v>
+        <v>451.191499343002</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264629</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727654</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933495</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.45090536675</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196204</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056072</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899268</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167067</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661996</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981889</v>
+        <v>1214.0228184492</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652422</v>
+        <v>1041.794132832554</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030827</v>
+        <v>876.7624189703945</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6683,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229673</v>
@@ -6847,19 +6847,19 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="36">
@@ -7002,25 +7002,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,25 +7193,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7637,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823789</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270183</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951771</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229571</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>47.41297725965964</v>
+        <v>196.6548751761615</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>25.96602296924271</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>99.23385149845575</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>47.85546287384949</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>117.559178575822</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315959</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709117</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.7054865406959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>48.84084321165233</v>
+        <v>194.2874683808271</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177059767</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965555</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801237</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437444</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>111.2945788773638</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>175963.0768819691</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="G2" t="n">
         <v>175963.076881969</v>
@@ -26335,22 +26335,22 @@
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
         <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194641</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="N2" t="n">
-        <v>184734.3982194641</v>
-      </c>
       <c r="O2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284544</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008671</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284546</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007459</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007436</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020393</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732802</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732805</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732793</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002535</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-636009.6077744112</v>
+        <v>-636009.6077744111</v>
       </c>
       <c r="C6" t="n">
-        <v>-46041.72855986666</v>
+        <v>-46041.72855986663</v>
       </c>
       <c r="D6" t="n">
-        <v>-46041.72855986663</v>
+        <v>-46041.72855986703</v>
       </c>
       <c r="E6" t="n">
-        <v>-449101.0171996515</v>
+        <v>-449198.4763256233</v>
       </c>
       <c r="F6" t="n">
-        <v>76059.01927724494</v>
+        <v>75961.5601512728</v>
       </c>
       <c r="G6" t="n">
-        <v>76059.0192772451</v>
+        <v>75961.56015127292</v>
       </c>
       <c r="H6" t="n">
-        <v>76059.01927724486</v>
+        <v>75961.56015127272</v>
       </c>
       <c r="I6" t="n">
-        <v>76059.01927724489</v>
+        <v>75961.56015127266</v>
       </c>
       <c r="J6" t="n">
-        <v>-100364.1999153481</v>
+        <v>-100461.6590413201</v>
       </c>
       <c r="K6" t="n">
-        <v>16197.79380209926</v>
+        <v>16179.30006416465</v>
       </c>
       <c r="L6" t="n">
-        <v>46340.86670124366</v>
+        <v>46340.86670124345</v>
       </c>
       <c r="M6" t="n">
-        <v>-78117.24173172671</v>
+        <v>-78117.24173172648</v>
       </c>
       <c r="N6" t="n">
-        <v>56683.77350211071</v>
+        <v>56683.77350211061</v>
       </c>
       <c r="O6" t="n">
-        <v>56683.77350211061</v>
+        <v>56683.77350211049</v>
       </c>
       <c r="P6" t="n">
-        <v>12521.16819926527</v>
+        <v>12521.16819926513</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108388</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855683</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>216.247492237964</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.89796621708496</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>98.18395524604355</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>89.55199276841091</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>229.6367167484072</v>
+        <v>18.1770464258762</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>27.67069892884609</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>6.182121090548151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>252.6157389749191</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>43.02968446384023</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.35695250071385</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>77.28404477295298</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.902233580329049e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.577345826973518e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285568</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,16 +31996,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927188</v>
@@ -32014,19 +32014,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354894</v>
@@ -32072,7 +32072,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
@@ -32081,19 +32081,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710957</v>
@@ -32102,13 +32102,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,19 +32166,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336902</v>
@@ -32187,7 +32187,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734236</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415666</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799322</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081121</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299125</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799286</v>
@@ -35814,16 +35814,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412233</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043156</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
